--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I2">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J2">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.207260666666667</v>
+        <v>5.207816999999999</v>
       </c>
       <c r="N2">
-        <v>21.621782</v>
+        <v>15.623451</v>
       </c>
       <c r="O2">
-        <v>0.4302872030863737</v>
+        <v>0.2396152990266368</v>
       </c>
       <c r="P2">
-        <v>0.4535786080924677</v>
+        <v>0.2808933289876999</v>
       </c>
       <c r="Q2">
-        <v>2.018198753662</v>
+        <v>1.458308539791</v>
       </c>
       <c r="R2">
-        <v>18.163788782958</v>
+        <v>13.124776858119</v>
       </c>
       <c r="S2">
-        <v>0.1413987318504898</v>
+        <v>0.1539294475548331</v>
       </c>
       <c r="T2">
-        <v>0.1777818395312764</v>
+        <v>0.1804465538242119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I3">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J3">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>20.833848</v>
       </c>
       <c r="O3">
-        <v>0.4146068157308514</v>
+        <v>0.3195266345697566</v>
       </c>
       <c r="P3">
-        <v>0.4370494428743219</v>
+        <v>0.3745708243552423</v>
       </c>
       <c r="Q3">
         <v>1.944652206168</v>
@@ -638,10 +638,10 @@
         <v>17.501869855512</v>
       </c>
       <c r="S3">
-        <v>0.1362459249087731</v>
+        <v>0.2052646827567972</v>
       </c>
       <c r="T3">
-        <v>0.1713031711241471</v>
+        <v>0.2406252033879999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +670,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I4">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J4">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.5803355</v>
+        <v>9.581642500000001</v>
       </c>
       <c r="N4">
-        <v>5.160671000000001</v>
+        <v>19.163285</v>
       </c>
       <c r="O4">
-        <v>0.1540509489901637</v>
+        <v>0.4408580664036067</v>
       </c>
       <c r="P4">
-        <v>0.1082598080492701</v>
+        <v>0.3445358466570578</v>
       </c>
       <c r="Q4">
-        <v>0.7225532877165002</v>
+        <v>2.6830802777775</v>
       </c>
       <c r="R4">
-        <v>4.335319726299001</v>
+        <v>16.098481666665</v>
       </c>
       <c r="S4">
-        <v>0.05062341773431988</v>
+        <v>0.2832082879818762</v>
       </c>
       <c r="T4">
-        <v>0.04243283849572214</v>
+        <v>0.2213306610812946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.280023</v>
+        <v>0.034962</v>
       </c>
       <c r="H5">
-        <v>0.8400690000000001</v>
+        <v>0.104886</v>
       </c>
       <c r="I5">
-        <v>0.3286147736587604</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J5">
-        <v>0.3919537569881015</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01767166666666667</v>
+        <v>5.207816999999999</v>
       </c>
       <c r="N5">
-        <v>0.053015</v>
+        <v>15.623451</v>
       </c>
       <c r="O5">
-        <v>0.001055032192611326</v>
+        <v>0.2396152990266368</v>
       </c>
       <c r="P5">
-        <v>0.001112140983940277</v>
+        <v>0.2808933289876999</v>
       </c>
       <c r="Q5">
-        <v>0.004948473115</v>
+        <v>0.182075697954</v>
       </c>
       <c r="R5">
-        <v>0.04453625803500001</v>
+        <v>1.638681281586</v>
       </c>
       <c r="S5">
-        <v>0.0003466991651776766</v>
+        <v>0.01921871183942774</v>
       </c>
       <c r="T5">
-        <v>0.0004359078369558355</v>
+        <v>0.02252947941705537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H6">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I6">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J6">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.207260666666667</v>
+        <v>6.944616</v>
       </c>
       <c r="N6">
-        <v>21.621782</v>
+        <v>20.833848</v>
       </c>
       <c r="O6">
-        <v>0.4302872030863737</v>
+        <v>0.3195266345697566</v>
       </c>
       <c r="P6">
-        <v>0.4535786080924677</v>
+        <v>0.3745708243552423</v>
       </c>
       <c r="Q6">
-        <v>0.1902092186742222</v>
+        <v>0.242797664592</v>
       </c>
       <c r="R6">
-        <v>1.711882968068</v>
+        <v>2.185178981328</v>
       </c>
       <c r="S6">
-        <v>0.01332640913488139</v>
+        <v>0.02562812282756467</v>
       </c>
       <c r="T6">
-        <v>0.01675540861887449</v>
+        <v>0.0300430263258777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,170 +850,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H7">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I7">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J7">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.944616</v>
+        <v>9.581642500000001</v>
       </c>
       <c r="N7">
-        <v>20.833848</v>
+        <v>19.163285</v>
       </c>
       <c r="O7">
-        <v>0.4146068157308514</v>
+        <v>0.4408580664036067</v>
       </c>
       <c r="P7">
-        <v>0.4370494428743219</v>
+        <v>0.3445358466570578</v>
       </c>
       <c r="Q7">
-        <v>0.183277675728</v>
+        <v>0.334993385085</v>
       </c>
       <c r="R7">
-        <v>1.649499081552</v>
+        <v>2.00996031051</v>
       </c>
       <c r="S7">
-        <v>0.01284077243503474</v>
+        <v>0.0353596960407622</v>
       </c>
       <c r="T7">
-        <v>0.01614481342673426</v>
+        <v>0.02763402496482154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02639133333333333</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H8">
-        <v>0.07917399999999999</v>
+        <v>0.362744</v>
       </c>
       <c r="I8">
-        <v>0.03097096320618746</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J8">
-        <v>0.03694047364654087</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5803355</v>
+        <v>5.207816999999999</v>
       </c>
       <c r="N8">
-        <v>5.160671000000001</v>
+        <v>15.623451</v>
       </c>
       <c r="O8">
-        <v>0.1540509489901637</v>
+        <v>0.2396152990266368</v>
       </c>
       <c r="P8">
-        <v>0.1082598080492701</v>
+        <v>0.2808933289876999</v>
       </c>
       <c r="Q8">
-        <v>0.06809849429233333</v>
+        <v>0.6297014566159999</v>
       </c>
       <c r="R8">
-        <v>0.408590965754</v>
+        <v>5.667313109543999</v>
       </c>
       <c r="S8">
-        <v>0.004771106273052621</v>
+        <v>0.06646713963237588</v>
       </c>
       <c r="T8">
-        <v>0.003999168586223636</v>
+        <v>0.07791729574643265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02639133333333333</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H9">
-        <v>0.07917399999999999</v>
+        <v>0.362744</v>
       </c>
       <c r="I9">
-        <v>0.03097096320618746</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J9">
-        <v>0.03694047364654087</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01767166666666667</v>
+        <v>6.944616</v>
       </c>
       <c r="N9">
-        <v>0.053015</v>
+        <v>20.833848</v>
       </c>
       <c r="O9">
-        <v>0.001055032192611326</v>
+        <v>0.3195266345697566</v>
       </c>
       <c r="P9">
-        <v>0.001112140983940277</v>
+        <v>0.3745708243552423</v>
       </c>
       <c r="Q9">
-        <v>0.0004663788455555555</v>
+        <v>0.8397059287679999</v>
       </c>
       <c r="R9">
-        <v>0.004197409609999999</v>
+        <v>7.557353358911999</v>
       </c>
       <c r="S9">
-        <v>3.267536321870866E-05</v>
+        <v>0.08863382898539478</v>
       </c>
       <c r="T9">
-        <v>4.108301470848384E-05</v>
+        <v>0.1039025946413647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,495 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H10">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I10">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J10">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.207260666666667</v>
+        <v>9.581642500000001</v>
       </c>
       <c r="N10">
-        <v>21.621782</v>
+        <v>19.163285</v>
       </c>
       <c r="O10">
-        <v>0.4302872030863737</v>
+        <v>0.4408580664036067</v>
       </c>
       <c r="P10">
-        <v>0.4535786080924677</v>
+        <v>0.3445358466570578</v>
       </c>
       <c r="Q10">
-        <v>2.977380643115667</v>
+        <v>1.158561109006667</v>
       </c>
       <c r="R10">
-        <v>17.864283858694</v>
+        <v>6.95136665404</v>
       </c>
       <c r="S10">
-        <v>0.2086007864234654</v>
+        <v>0.1222900823809683</v>
       </c>
       <c r="T10">
-        <v>0.174850373138412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.4131085</v>
-      </c>
-      <c r="H11">
-        <v>0.826217</v>
-      </c>
-      <c r="I11">
-        <v>0.4847943069819622</v>
-      </c>
-      <c r="J11">
-        <v>0.3854907837778066</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.944616</v>
-      </c>
-      <c r="N11">
-        <v>20.833848</v>
-      </c>
-      <c r="O11">
-        <v>0.4146068157308514</v>
-      </c>
-      <c r="P11">
-        <v>0.4370494428743219</v>
-      </c>
-      <c r="Q11">
-        <v>2.868879898836</v>
-      </c>
-      <c r="R11">
-        <v>17.213279393016</v>
-      </c>
-      <c r="S11">
-        <v>0.2009990239022362</v>
-      </c>
-      <c r="T11">
-        <v>0.1684785322832761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.4131085</v>
-      </c>
-      <c r="H12">
-        <v>0.826217</v>
-      </c>
-      <c r="I12">
-        <v>0.4847943069819622</v>
-      </c>
-      <c r="J12">
-        <v>0.3854907837778066</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.5803355</v>
-      </c>
-      <c r="N12">
-        <v>5.160671000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1540509489901637</v>
-      </c>
-      <c r="P12">
-        <v>0.1082598080492701</v>
-      </c>
-      <c r="Q12">
-        <v>1.06595852790175</v>
-      </c>
-      <c r="R12">
-        <v>4.263834111607</v>
-      </c>
-      <c r="S12">
-        <v>0.07468302305560001</v>
-      </c>
-      <c r="T12">
-        <v>0.04173315825654803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.4131085</v>
-      </c>
-      <c r="H13">
-        <v>0.826217</v>
-      </c>
-      <c r="I13">
-        <v>0.4847943069819622</v>
-      </c>
-      <c r="J13">
-        <v>0.3854907837778066</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01767166666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.053015</v>
-      </c>
-      <c r="O13">
-        <v>0.001055032192611326</v>
-      </c>
-      <c r="P13">
-        <v>0.001112140983940277</v>
-      </c>
-      <c r="Q13">
-        <v>0.007300315709166666</v>
-      </c>
-      <c r="R13">
-        <v>0.043801894255</v>
-      </c>
-      <c r="S13">
-        <v>0.0005114736006606679</v>
-      </c>
-      <c r="T13">
-        <v>0.0004287200995705585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.397826</v>
-      </c>
-      <c r="I14">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J14">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>7.207260666666667</v>
-      </c>
-      <c r="N14">
-        <v>21.621782</v>
-      </c>
-      <c r="O14">
-        <v>0.4302872030863737</v>
-      </c>
-      <c r="P14">
-        <v>0.4535786080924677</v>
-      </c>
-      <c r="Q14">
-        <v>0.9557452273257778</v>
-      </c>
-      <c r="R14">
-        <v>8.601707045932001</v>
-      </c>
-      <c r="S14">
-        <v>0.06696127567753714</v>
-      </c>
-      <c r="T14">
-        <v>0.08419098680390488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.397826</v>
-      </c>
-      <c r="I15">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J15">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.944616</v>
-      </c>
-      <c r="N15">
-        <v>20.833848</v>
-      </c>
-      <c r="O15">
-        <v>0.4146068157308514</v>
-      </c>
-      <c r="P15">
-        <v>0.4370494428743219</v>
-      </c>
-      <c r="Q15">
-        <v>0.9209162682720001</v>
-      </c>
-      <c r="R15">
-        <v>8.288246414448</v>
-      </c>
-      <c r="S15">
-        <v>0.06452109448480729</v>
-      </c>
-      <c r="T15">
-        <v>0.08112292604016449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.397826</v>
-      </c>
-      <c r="I16">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J16">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.5803355</v>
-      </c>
-      <c r="N16">
-        <v>5.160671000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1540509489901637</v>
-      </c>
-      <c r="P16">
-        <v>0.1082598080492701</v>
-      </c>
-      <c r="Q16">
-        <v>0.3421748502076667</v>
-      </c>
-      <c r="R16">
-        <v>2.053049101246</v>
-      </c>
-      <c r="S16">
-        <v>0.02397340192719115</v>
-      </c>
-      <c r="T16">
-        <v>0.02009464271077632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.397826</v>
-      </c>
-      <c r="I17">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J17">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01767166666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.053015</v>
-      </c>
-      <c r="O17">
-        <v>0.001055032192611326</v>
-      </c>
-      <c r="P17">
-        <v>0.001112140983940277</v>
-      </c>
-      <c r="Q17">
-        <v>0.002343416154444445</v>
-      </c>
-      <c r="R17">
-        <v>0.02109074539</v>
-      </c>
-      <c r="S17">
-        <v>0.0001641840635542728</v>
-      </c>
-      <c r="T17">
-        <v>0.0002064300327053994</v>
+        <v>0.09557116061094163</v>
       </c>
     </row>
   </sheetData>
